--- a/9th week/Binh/SE18_BlackBoxTestCase_PhoneManagement_v2.0.xlsx
+++ b/9th week/Binh/SE18_BlackBoxTestCase_PhoneManagement_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8160" tabRatio="821" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8160" tabRatio="821" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="369">
   <si>
     <t>Module Code</t>
   </si>
@@ -787,9 +787,6 @@
     <t>PMI09</t>
   </si>
   <si>
-    <t>All the fields are filled, if not, show a message to ask user to fill them, the filed Price must be a number, if not the system will show a messagebox to notice and ask the user to re-input, data must be added to table IMPORT in database</t>
-  </si>
-  <si>
     <t>Test validate for Quantity</t>
   </si>
   <si>
@@ -802,9 +799,6 @@
     <t>PMI11</t>
   </si>
   <si>
-    <t>Data must be an integer number, if not, show a message to ask user to re-input, disable the button Import</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test validate for Import Date </t>
   </si>
   <si>
@@ -815,9 +809,6 @@
   </si>
   <si>
     <t>Test validate for Price</t>
-  </si>
-  <si>
-    <t>Data must be a number, if not, show a message to ask user to re-input, disable the button Import.</t>
   </si>
   <si>
     <t>PME10</t>
@@ -999,12 +990,6 @@
     <t>Test the Manufacture drop list on initial</t>
   </si>
   <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
-At: Phone Management_Import
-Action: None
-</t>
-  </si>
-  <si>
     <t>Test the Phone Name textbox when intitial</t>
   </si>
   <si>
@@ -1049,32 +1034,10 @@
     <t>Choosen value: "Choose a manufacture"</t>
   </si>
   <si>
-    <t>Main Screen-&gt;Phone Management-&gt;Insert
-At Phone Management_Import screen
-Action: none</t>
-  </si>
-  <si>
-    <t>Main Screen-&gt;Phone Management-&gt;Insert
-At Phone Management_Import screen
-Action: on text change</t>
-  </si>
-  <si>
     <t>Test the Manufacture drop list on click</t>
   </si>
   <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
-At: Phone Management_Import
-Action: click on the Manufacture drop list
-</t>
-  </si>
-  <si>
     <t>Test the Manufacture drop list on click and choose a value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
-At: Phone Management_Import
-Action: click on the Manufacture drop list, choose a value
-</t>
   </si>
   <si>
     <t>Choosen value: a value that you clicked on
@@ -1084,125 +1047,465 @@
     <t>Test the Color drop list when initial</t>
   </si>
   <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
+    <t xml:space="preserve">Choosen value: "Choose a color" </t>
+  </si>
+  <si>
+    <t>Test the Color drop list when click</t>
+  </si>
+  <si>
+    <t>Test the Color drop list when click and choose a value</t>
+  </si>
+  <si>
+    <t>Test the Operating system drop list when initial</t>
+  </si>
+  <si>
+    <t>Test the Operating System drop list when click</t>
+  </si>
+  <si>
+    <t>Test the Operating System drop list when click and choose a value</t>
+  </si>
+  <si>
+    <t>Choosen value: the value that you clicked on
+Color droplist DO NOT show the whole list, back to the normal state before clicking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Manufacture drop list display all Manufacture name from table MANUFACTURE.NAME in database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Color drop list display all Color name from table COLOR.NAME in database </t>
+  </si>
+  <si>
+    <t>Test the Importer drop list when initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choosen value: "Choose a staff" </t>
+  </si>
+  <si>
+    <t>Test the Importer drop list when click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating system drop list display all Operating system name from table OPERATINGSYSTEM.NAME in database </t>
+  </si>
+  <si>
+    <t>Choosen value: the value that you clicked on
+Operating system drop back o the state before clicking(Do NOT show the whole list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importer drop list display all Manufacture name from table STAFF.NAME in database </t>
+  </si>
+  <si>
+    <t>Test the Importer drop list when click and choose a value</t>
+  </si>
+  <si>
+    <t>Test the Source textbox when intitial</t>
+  </si>
+  <si>
+    <t>Test the Source textbox when inputing normal characters</t>
+  </si>
+  <si>
+    <t>PMI12</t>
+  </si>
+  <si>
+    <t>PMI13</t>
+  </si>
+  <si>
+    <t>PMI14</t>
+  </si>
+  <si>
+    <t>PMI15</t>
+  </si>
+  <si>
+    <t>PMI16</t>
+  </si>
+  <si>
+    <t>PMI17</t>
+  </si>
+  <si>
+    <t>PMI18</t>
+  </si>
+  <si>
+    <t>PMI19</t>
+  </si>
+  <si>
+    <t>PMI20</t>
+  </si>
+  <si>
+    <t>PMI21</t>
+  </si>
+  <si>
+    <t>PMI22</t>
+  </si>
+  <si>
+    <t>PMI23</t>
+  </si>
+  <si>
+    <t>PMI24</t>
+  </si>
+  <si>
+    <t>PMI25</t>
+  </si>
+  <si>
+    <t>PMI26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choosen value: "Choose an operating system" </t>
+  </si>
+  <si>
+    <t>Choosen value: the value that you clicked on
+Importer drop back o the state before clicking(DO NOT show the whole list)</t>
+  </si>
+  <si>
+    <t>DO NOT show special character, just show normal characters, cannot type special characters
+Show a message
+Content: "You can not input special characters!"
+Type: Messagebox
+Location: Center of screen</t>
+  </si>
+  <si>
+    <t>Test the Phone Name textbox when inputing a string with the length over the specify length</t>
+  </si>
+  <si>
+    <t>Cannot type anymore characters, keep displaying current string 
+Show a message
+Content: "You can not input special characters!"
+Type: Messagebox
+Location: Center of screen</t>
+  </si>
+  <si>
+    <t>The button Import is disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
 At: Phone Management_Import
 Action: none
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Choosen value: "Choose a color" </t>
-  </si>
-  <si>
-    <t>Test the Color drop list when click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
+    <t>Test the Clear button when all the fields are filled</t>
+  </si>
+  <si>
+    <t>Test the Clear button when all the fields are NOT filled</t>
+  </si>
+  <si>
+    <t>Disable the button Clear</t>
+  </si>
+  <si>
+    <t>Test the field Quantity on initial</t>
+  </si>
+  <si>
+    <t>The filed Quantity must be empty</t>
+  </si>
+  <si>
+    <t>Test the field Quantity on typing numberic characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
 At: Phone Management_Import
+Action: on text change
+</t>
+  </si>
+  <si>
+    <t>Test the field Quantity on typing NONE numberic characters</t>
+  </si>
+  <si>
+    <t>Numberic characters include: 1,2,3,4,5,6,7,8,9,0</t>
+  </si>
+  <si>
+    <t>Just display the numberic characters, DO NOT display none numberic characters.
+Show a message to notice and ask for re-input:
+Content: "You can only input a number here! Please make sure that you are inputing numberic characters!"</t>
+  </si>
+  <si>
+    <t>Test the field Price on typing numberic characters</t>
+  </si>
+  <si>
+    <t>Test the field Price on typing NONE numberic characters</t>
+  </si>
+  <si>
+    <t>Test Import Date on initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Date picker Import date 
+Action: none
+</t>
+  </si>
+  <si>
+    <t>Show the default(today) in the format in the Note beside</t>
+  </si>
+  <si>
+    <t>PMI27</t>
+  </si>
+  <si>
+    <t>PMI28</t>
+  </si>
+  <si>
+    <t>PMI29</t>
+  </si>
+  <si>
+    <t>PMI30</t>
+  </si>
+  <si>
+    <t>PMI31</t>
+  </si>
+  <si>
+    <t>Test Import Date on click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Date picker Import date 
+Action: on click
+</t>
+  </si>
+  <si>
+    <t>Show all the days in the current month in a drop down panel, the current date, current month, current year are selected.
+All the dates before current date are disabled</t>
+  </si>
+  <si>
+    <t>Data must be in format: Day of week, Month, Date, Year;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Date picker Import date 
+Action: on selected date
+</t>
+  </si>
+  <si>
+    <t>Close the drop down panel, show the selected date in the format</t>
+  </si>
+  <si>
+    <t>Test Import Date on  click and select date</t>
+  </si>
+  <si>
+    <t>Test Import Date on  click but DO NOT select date</t>
+  </si>
+  <si>
+    <t>Close the drop down panel, show the current date in the format</t>
+  </si>
+  <si>
+    <t>PMI32</t>
+  </si>
+  <si>
+    <t>PMI33</t>
+  </si>
+  <si>
+    <t>PMI34</t>
+  </si>
+  <si>
+    <t>PMI35</t>
+  </si>
+  <si>
+    <t>Main Screen-&gt;Phone Management-&gt;Import
+At Phone Management_Import screen
+Component: Phone Name textbox
+Action: none</t>
+  </si>
+  <si>
+    <t>Main Screen-&gt;Phone Management-&gt;Import
+At Phone Management_Import screen
+Component: Phone Name textbox
+Action: on text change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Manufactue droplist
+Action: None
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Manufactue droplist
+Action: click on the Manufacture drop list
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Manufactue droplist
+Action: click on the Manufacture drop list, choose a value
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Color droplist
+Action: none
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Color droplist
 Action: click on the Color droplist
 </t>
   </si>
   <si>
-    <t>Test the Color drop list when click and choose a value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
 At: Phone Management_Import
+Component: Color droplist
 Action: click on the Color droplist, choose a value
 </t>
   </si>
   <si>
-    <t>Test the Operating system drop list when initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choosen value: "Choose an operation" </t>
-  </si>
-  <si>
-    <t>Test the Operating System drop list when click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
 At: Phone Management_Import
+Component: Operating System droplist
+Action: none
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Operating System droplist
 Action: click on the Operating System droplist
 </t>
   </si>
   <si>
-    <t>Test the Operating System drop list when click and choose a value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
 At: Phone Management_Import
+Component: Operating System droplist
 Action: click on the Operating System droplist, choose a value
 </t>
   </si>
   <si>
-    <t>Choosen value: the value that you clicked on
-Color droplist DO NOT show the whole list, back to the normal state before clicking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Manufacture drop list display all Manufacture name from table MANUFACTURE.NAME in database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Color drop list display all Color name from table COLOR.NAME in database </t>
-  </si>
-  <si>
-    <t>Test the Importer drop list when initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choosen value: "Choose a staff" </t>
-  </si>
-  <si>
-    <t>Test the Importer drop list when click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
 At: Phone Management_Import
+Component: Importer droplist
+Action: none
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Importer droplist
 Action: click on the Importer droplist
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Operating system drop list display all Operating system name from table OPERATINGSYSTEM.NAME in database </t>
-  </si>
-  <si>
-    <t>Choosen value: the value that you clicked on
-Operating system drop back o the state before clicking(Do NOT show the whole list)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importer drop list display all Manufacture name from table STAFF.NAME in database </t>
-  </si>
-  <si>
-    <t>Test the Importer drop list when click and choose a value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
 At: Phone Management_Import
+Component: Importer droplist
 Action: click on the Importer droplist, choose a value
 </t>
   </si>
   <si>
-    <t>Choosen value: the value that you clicked on
-Importer drop back o the state before clicking(Do NOT show the whole list)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Insert
+    <t>Main Screen-&gt;Phone Management-&gt;Import
+At Phone Management_Import screen
+Component: Source textbox
+Action: none</t>
+  </si>
+  <si>
+    <t>Main Screen-&gt;Phone Management-&gt;Import
+At Phone Management_Import screen
+Component: Source textbox
+Action: on text change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
 At: Phone Management_Import
+Component: Cancel button
+Action: none
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Clear button
+Action: none
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Clear button
 Action: click on the button Import
 </t>
   </si>
   <si>
-    <t>Test the Import button when all the fileds are filled</t>
-  </si>
-  <si>
-    <t>Test the Source textbox when intitial</t>
-  </si>
-  <si>
-    <t>Test the Source textbox when inputing normal characters</t>
-  </si>
-  <si>
-    <t>Main Screen-&gt;Phone Management-&gt;Insert
-At Phone Management_Import screen, textbox Source
-Action: on text change</t>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Import  button
+Action: click on the button Import
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Import button
+Action: click on the button Import
+</t>
+  </si>
+  <si>
+    <t>Test the Import button when one fileds is not filled</t>
+  </si>
+  <si>
+    <t>Test the Import button when all the fileds are filled and validated</t>
+  </si>
+  <si>
+    <t>Add new record to the table IMPORT in data base</t>
+  </si>
+  <si>
+    <t>Test the Import button when all the fileds are filled and  NOT validated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Import
+At: Phone Management_Import
+Component: Import button
+Action: none
+</t>
+  </si>
+  <si>
+    <t>Disable the button Import</t>
+  </si>
+  <si>
+    <t>Test the Color drop list when click but DO NOT choose a value</t>
+  </si>
+  <si>
+    <t>Choosen value: "Choose a color"
+Color droplist DO NOT show the whole list, back to the normal state before clicking</t>
+  </si>
+  <si>
+    <t>Test the Manufacture drop list on click but DO NOT choose a value</t>
+  </si>
+  <si>
+    <t>Choosen value: "Choose a color"
+Manufacture drop list back to the normal state(DO NOT show the whole list)</t>
+  </si>
+  <si>
+    <t>Test the Operating System drop list when click but DO NOT choose a value</t>
+  </si>
+  <si>
+    <t>Choosen value: "Choose an Operating System"
+Operating system drop back o the state before clicking(Do NOT show the whole list)</t>
+  </si>
+  <si>
+    <t>Test the Importer drop list when click but DO NOT choose a value</t>
+  </si>
+  <si>
+    <t>Choosen value: "Choose a staff"
+Importer drop back o the state before clicking(DO NOT show the whole list)</t>
+  </si>
+  <si>
+    <t>PMI36</t>
+  </si>
+  <si>
+    <t>PMI37</t>
+  </si>
+  <si>
+    <t>PMI38</t>
+  </si>
+  <si>
+    <t>PMI39</t>
+  </si>
+  <si>
+    <t>PMI40</t>
   </si>
 </sst>
 </file>
@@ -2011,6 +2314,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2044,9 +2350,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4773,16 +5076,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4806,7 +5109,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3848100" y="1571625"/>
+          <a:off x="4467225" y="1685925"/>
           <a:ext cx="3390900" cy="2800350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4841,26 +5144,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvPr id="25" name="Rounded Rectangle 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7724774" y="2990849"/>
-          <a:ext cx="1724025" cy="390525"/>
+          <a:off x="7820025" y="4457700"/>
+          <a:ext cx="1724025" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4891,6 +5194,39 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Font: Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Text size: 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Size:  90, 45</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4899,28 +5235,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="1"/>
+          <a:stCxn id="25" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="7096125" y="3357562"/>
-          <a:ext cx="628649" cy="52388"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6858001" y="3743326"/>
+          <a:ext cx="962024" cy="1133474"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4944,26 +5280,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvPr id="27" name="Rounded Rectangle 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7820025" y="4457700"/>
-          <a:ext cx="1724025" cy="666750"/>
+          <a:off x="8391525" y="1866900"/>
+          <a:ext cx="2238375" cy="1219199"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4989,34 +5325,174 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Background Color: E4E0E0</a:t>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Font: Sans</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Font: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> Serif</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Size 12</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Text size: 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 297, 26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Max length text: 50</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5029,27 +5505,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="1"/>
+          <a:stCxn id="27" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6858001" y="3743325"/>
-          <a:ext cx="962024" cy="1047750"/>
+        <a:xfrm flipH="1">
+          <a:off x="7410450" y="2476500"/>
+          <a:ext cx="981075" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5073,26 +5549,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7781925" y="1285875"/>
-          <a:ext cx="2238375" cy="590550"/>
+          <a:off x="2266950" y="647700"/>
+          <a:ext cx="1857375" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5115,6 +5591,220 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Background</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> color: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E4E0E0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Font: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Serif</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Text size: 18</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alignment: center</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 142, 20</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3195638" y="1895475"/>
+          <a:ext cx="1890712" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rounded Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7972425" y="2962274"/>
+          <a:ext cx="2238375" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
@@ -5129,9 +5819,193 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Width: 300</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 297, 26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Text size: 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Format: Date of week, Month DD, YYYY</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7610475" y="3038475"/>
+          <a:ext cx="1047750" cy="852487"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rounded Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8391525" y="752475"/>
+          <a:ext cx="2238375" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 297, 26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Text size:12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Source: PHONE.ID</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5140,27 +6014,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="1"/>
+          <a:stCxn id="34" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="6858000" y="1752600"/>
-          <a:ext cx="923925" cy="381000"/>
+          <a:off x="7105650" y="1238250"/>
+          <a:ext cx="1285875" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5185,25 +6059,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvPr id="36" name="Rounded Rectangle 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1447800" y="762000"/>
-          <a:ext cx="1857375" cy="771525"/>
+          <a:off x="1628775" y="3429000"/>
+          <a:ext cx="2238375" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5229,20 +6103,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Background</a:t>
+            <a:t>Background:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> color: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>E4E0E0</a:t>
+            <a:t> FFFFFF</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5253,36 +6118,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Font: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Sans</a:t>
-          </a:r>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:effectLst/>
@@ -5290,27 +6126,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Serif</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+            <a:t>Size: 297, 26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:effectLst/>
@@ -5318,15 +6138,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Size: 12</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:t>Text size:12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Source: STAFF.NAME</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5334,28 +6159,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="2"/>
+          <a:stCxn id="36" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2376488" y="1533525"/>
-          <a:ext cx="1757362" cy="590550"/>
+        <a:xfrm flipV="1">
+          <a:off x="3867150" y="3267075"/>
+          <a:ext cx="1838325" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5379,26 +6204,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7791450" y="2190750"/>
-          <a:ext cx="2238375" cy="590550"/>
+          <a:off x="1428750" y="2038350"/>
+          <a:ext cx="2238375" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5435,9 +6260,44 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Width: 300</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 297, 26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Text size:12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Source: COLOR.COLORNAME</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5445,28 +6305,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="23" idx="1"/>
+          <a:stCxn id="38" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7019925" y="2533650"/>
-          <a:ext cx="771525" cy="123825"/>
+        <a:xfrm>
+          <a:off x="3667125" y="2524125"/>
+          <a:ext cx="2171700" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5495,16 +6355,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5528,7 +6388,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4371975" y="1076325"/>
+          <a:off x="3686175" y="1343025"/>
           <a:ext cx="3609975" cy="3019425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5563,26 +6423,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7724774" y="2990849"/>
-          <a:ext cx="1724025" cy="390525"/>
+          <a:off x="8505825" y="4800600"/>
+          <a:ext cx="1724025" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5613,6 +6473,39 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Font: Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Serif</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Text size: 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Size:  90, 45</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -5621,28 +6514,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="1"/>
+          <a:stCxn id="15" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="6981825" y="3186112"/>
-          <a:ext cx="742949" cy="385763"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6858000" y="3876675"/>
+          <a:ext cx="962025" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5666,26 +6559,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7820025" y="4457700"/>
-          <a:ext cx="1724025" cy="666750"/>
+          <a:off x="7658100" y="295275"/>
+          <a:ext cx="2238375" cy="1219199"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5711,34 +6604,174 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Background Color: E4E0E0</a:t>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Font: Sans</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Font: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sans</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> Serif</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Size 12</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Text size: 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 297, 26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Max length text: 50</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -5750,139 +6783,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6858001" y="3743325"/>
-          <a:ext cx="962024" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7781925" y="1285875"/>
-          <a:ext cx="2238375" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Background:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> FFFFFF</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Width: 300</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
+          <a:stCxn id="17" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="6924675" y="1581150"/>
-          <a:ext cx="857250" cy="133350"/>
+          <a:off x="6800851" y="904875"/>
+          <a:ext cx="857249" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5907,25 +6829,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1714500" y="257175"/>
-          <a:ext cx="1857375" cy="1504950"/>
+          <a:off x="2266950" y="647700"/>
+          <a:ext cx="1857375" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5948,13 +6870,22 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Background</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> color: </a:t>
           </a:r>
           <a:r>
@@ -5966,34 +6897,33 @@
             </a:rPr>
             <a:t>E4E0E0</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Foreground: 000000</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Font: </a:t>
           </a:r>
           <a:r>
@@ -6014,25 +6944,12 @@
             </a:rPr>
             <a:t> Serif</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:effectLst/>
@@ -6040,33 +6957,38 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Size: 12</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+            <a:t>Text size: 18</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Alignment: center</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 142, 20</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -6076,27 +6998,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
+          <a:stCxn id="19" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2643188" y="1762125"/>
-          <a:ext cx="2224087" cy="476250"/>
+          <a:off x="3195638" y="1895475"/>
+          <a:ext cx="1890712" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6120,26 +7042,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7791450" y="2190750"/>
-          <a:ext cx="2238375" cy="590550"/>
+          <a:off x="8658225" y="3305174"/>
+          <a:ext cx="2238375" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6176,9 +7098,47 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Width: 300</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 297, 26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Text size: 12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Format: Date of week, Month DD, YYYY</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6186,28 +7146,466 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="1"/>
+          <a:stCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6810375" y="3105150"/>
+          <a:ext cx="1162050" cy="442912"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7772400" y="1590675"/>
+          <a:ext cx="2238375" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 297, 26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Text size:12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Source:  MANUFACTURE.NAME</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="7029450" y="2486025"/>
-          <a:ext cx="762000" cy="476250"/>
+          <a:off x="6429375" y="2076450"/>
+          <a:ext cx="1343025" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rounded Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1628775" y="3429000"/>
+          <a:ext cx="2238375" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 297, 26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Text size:12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Source: STAFF.NAME</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3181350" y="3276600"/>
+          <a:ext cx="1981200" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rounded Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1428750" y="2038350"/>
+          <a:ext cx="2238375" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Background:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> FFFFFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Foreground: 000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Size: 297, 26</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Text size:12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Source: COLOR.COLORNAME</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2981325" y="2181225"/>
+          <a:ext cx="2181225" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7323,13 +8721,13 @@
     <row r="2" spans="1:7" s="38" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="40"/>
@@ -7340,11 +8738,11 @@
       <c r="B4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
       <c r="F4" s="42" t="s">
         <v>20</v>
       </c>
@@ -7356,43 +8754,43 @@
       <c r="B5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="102" t="str">
+      <c r="C6" s="103" t="str">
         <f>C5&amp;"_"&amp;"BlackBoxTestcase"&amp;"_"&amp;"v2.0"</f>
         <v>SE18_BlackBoxTestcase_v2.0</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
       <c r="F6" s="42" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="93" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="42" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7443,7 +8841,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E12" s="60"/>
       <c r="F12" s="61"/>
@@ -7451,13 +8849,13 @@
     </row>
     <row r="13" spans="1:7" s="58" customFormat="1" ht="21.75" customHeight="1">
       <c r="B13" s="96" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
@@ -7520,8 +8918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7535,7 +8933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -7589,38 +8989,38 @@
       <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104" t="s">
+      <c r="C3" s="104"/>
+      <c r="D3" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104" t="str">
+      <c r="C4" s="104"/>
+      <c r="D4" s="105" t="str">
         <f>D3</f>
         <v>MobilePhone Store Management</v>
       </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
     </row>
     <row r="5" spans="2:6" s="2" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="75"/>
@@ -7833,9 +9233,9 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:IV65536"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7868,13 +9268,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -7886,13 +9286,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -7904,13 +9304,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+      <c r="B4" s="110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -7929,10 +9329,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -7957,11 +9357,11 @@
         <f>COUNTIF(F$10:F$17,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="108">
         <f>COUNTA(A10:A17)</f>
         <v>8</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -8028,13 +9428,13 @@
         <v>56</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D10" s="92" t="s">
         <v>117</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -8049,7 +9449,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D11" s="92" t="s">
         <v>117</v>
@@ -8070,7 +9470,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>117</v>
@@ -8088,10 +9488,10 @@
         <v>124</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>117</v>
@@ -8109,13 +9509,13 @@
         <v>125</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>99</v>
@@ -8130,10 +9530,10 @@
         <v>176</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>177</v>
@@ -8147,16 +9547,16 @@
     </row>
     <row r="16" spans="1:10" s="90" customFormat="1" ht="51">
       <c r="A16" s="31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>99</v>
@@ -8167,16 +9567,16 @@
     </row>
     <row r="17" spans="1:9" s="90" customFormat="1" ht="84" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>99</v>
@@ -8287,10 +9687,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8323,13 +9723,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -8341,13 +9741,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -8359,13 +9759,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -8384,10 +9784,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -8397,11 +9797,11 @@
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="20">
-        <f>COUNTIF(F47:F1029,"Pass")</f>
+        <f>COUNTIF(F56:F1038,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="21">
-        <f>COUNTIF(F47:F1029,"Fail")</f>
+        <f>COUNTIF(F56:F1038,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="21">
@@ -8409,14 +9809,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="22">
-        <f>COUNTIF(F$10:F$32,"N/A")</f>
+        <f>COUNTIF(F$10:F$49,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="107">
-        <f>COUNTA(A47:A1014)</f>
+      <c r="E6" s="108">
+        <f>COUNTA(A56:A1023)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -8483,7 +9883,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D10" s="92" t="s">
         <v>117</v>
@@ -8501,13 +9901,13 @@
         <v>127</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>165</v>
@@ -8522,13 +9922,13 @@
         <v>128</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>165</v>
@@ -8536,7 +9936,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I12" s="30"/>
     </row>
@@ -8545,13 +9945,13 @@
         <v>129</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>165</v>
@@ -8559,7 +9959,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I13" s="30"/>
     </row>
@@ -8568,16 +9968,16 @@
         <v>130</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -8586,16 +9986,16 @@
     </row>
     <row r="15" spans="1:10" s="90" customFormat="1" ht="64.5" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>165</v>
@@ -8607,18 +10007,18 @@
     </row>
     <row r="16" spans="1:10" s="98" customFormat="1" ht="82.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="111" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="111" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="99" t="s">
         <v>165</v>
       </c>
       <c r="F16" s="31"/>
@@ -8628,18 +10028,18 @@
     </row>
     <row r="17" spans="1:9" s="98" customFormat="1" ht="82.5" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="111" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="111" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="99" t="s">
         <v>165</v>
       </c>
       <c r="F17" s="31"/>
@@ -8649,18 +10049,18 @@
     </row>
     <row r="18" spans="1:9" s="98" customFormat="1" ht="82.5" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>263</v>
+        <v>358</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="E18" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>359</v>
+      </c>
+      <c r="E18" s="99" t="s">
         <v>165</v>
       </c>
       <c r="F18" s="31"/>
@@ -8668,18 +10068,18 @@
       <c r="H18" s="32"/>
       <c r="I18" s="97"/>
     </row>
-    <row r="19" spans="1:9" s="90" customFormat="1" ht="63.75">
+    <row r="19" spans="1:9" s="98" customFormat="1" ht="82.5" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>165</v>
@@ -8687,20 +10087,20 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="97"/>
     </row>
     <row r="20" spans="1:9" s="90" customFormat="1" ht="76.5">
       <c r="A20" s="31" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>269</v>
+        <v>335</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>165</v>
@@ -8710,18 +10110,18 @@
       <c r="H20" s="32"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9" s="90" customFormat="1" ht="63.75">
+    <row r="21" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A21" s="31" t="s">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>165</v>
@@ -8731,18 +10131,18 @@
       <c r="H21" s="32"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="1:9" s="90" customFormat="1" ht="76.5">
+    <row r="22" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A22" s="31" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>165</v>
@@ -8752,18 +10152,18 @@
       <c r="H22" s="32"/>
       <c r="I22" s="30"/>
     </row>
-    <row r="23" spans="1:9" s="90" customFormat="1" ht="76.5">
+    <row r="23" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A23" s="31" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>165</v>
@@ -8773,18 +10173,18 @@
       <c r="H23" s="32"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="1:9" s="90" customFormat="1" ht="63.75">
+    <row r="24" spans="1:9" s="90" customFormat="1" ht="102">
       <c r="A24" s="31" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E24" s="34" t="s">
         <v>165</v>
@@ -8794,18 +10194,18 @@
       <c r="H24" s="32"/>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:9" s="90" customFormat="1" ht="63.75">
+    <row r="25" spans="1:9" s="90" customFormat="1" ht="102">
       <c r="A25" s="31" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>165</v>
@@ -8815,18 +10215,18 @@
       <c r="H25" s="32"/>
       <c r="I25" s="30"/>
     </row>
-    <row r="26" spans="1:9" s="90" customFormat="1" ht="76.5">
+    <row r="26" spans="1:9" s="90" customFormat="1" ht="102">
       <c r="A26" s="31" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="E26" s="34" t="s">
         <v>165</v>
@@ -8836,18 +10236,18 @@
       <c r="H26" s="32"/>
       <c r="I26" s="30"/>
     </row>
-    <row r="27" spans="1:9" s="90" customFormat="1" ht="51">
+    <row r="27" spans="1:9" s="90" customFormat="1" ht="76.5">
       <c r="A27" s="31" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>165</v>
@@ -8857,85 +10257,81 @@
       <c r="H27" s="32"/>
       <c r="I27" s="30"/>
     </row>
-    <row r="28" spans="1:9" s="90" customFormat="1" ht="102">
+    <row r="28" spans="1:9" s="90" customFormat="1" ht="76.5">
       <c r="A28" s="31" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>165</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="32" t="s">
-        <v>250</v>
-      </c>
+      <c r="H28" s="32"/>
       <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A29" s="31" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="E29" s="34" t="s">
         <v>165</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="32" t="s">
-        <v>251</v>
-      </c>
+      <c r="H29" s="32"/>
       <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A30" s="31" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>179</v>
+        <v>363</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="32"/>
       <c r="I30" s="30"/>
     </row>
-    <row r="31" spans="1:9" s="90" customFormat="1" ht="38.25">
+    <row r="31" spans="1:9" s="90" customFormat="1" ht="63.75">
       <c r="A31" s="31" t="s">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>69</v>
+        <v>343</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>165</v>
@@ -8945,60 +10341,64 @@
       <c r="H31" s="32"/>
       <c r="I31" s="30"/>
     </row>
-    <row r="32" spans="1:9" s="90" customFormat="1" ht="25.5">
+    <row r="32" spans="1:9" s="90" customFormat="1" ht="102">
       <c r="A32" s="31" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>165</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
+      <c r="H32" s="32" t="s">
+        <v>246</v>
+      </c>
       <c r="I32" s="30"/>
     </row>
-    <row r="33" spans="1:9" s="90" customFormat="1" ht="38.25">
+    <row r="33" spans="1:9" s="90" customFormat="1" ht="129.75" customHeight="1">
       <c r="A33" s="31" t="s">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>181</v>
+        <v>330</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="E33" s="34" t="s">
         <v>165</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
+      <c r="H33" s="32" t="s">
+        <v>247</v>
+      </c>
       <c r="I33" s="30"/>
     </row>
-    <row r="34" spans="1:9" s="90" customFormat="1" ht="84" customHeight="1">
+    <row r="34" spans="1:9" s="90" customFormat="1" ht="129.75" customHeight="1">
       <c r="A34" s="31" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="E34" s="34" t="s">
         <v>165</v>
@@ -9008,18 +10408,18 @@
       <c r="H34" s="32"/>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" spans="1:9" s="90" customFormat="1" ht="51.75" customHeight="1">
+    <row r="35" spans="1:9" s="90" customFormat="1" ht="129.75" customHeight="1">
       <c r="A35" s="31" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>165</v>
@@ -9029,79 +10429,369 @@
       <c r="H35" s="32"/>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:9" s="90" customFormat="1">
-      <c r="A36" s="33"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" s="90" customFormat="1">
-      <c r="A37" s="33"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="33"/>
-      <c r="G38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="33"/>
-      <c r="G39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="33"/>
-      <c r="G40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="33"/>
-      <c r="G41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="33"/>
-      <c r="G42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="33"/>
-      <c r="G43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="33"/>
-      <c r="G44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="33"/>
-      <c r="G45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="33"/>
-      <c r="G46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="9:9" ht="66.75" customHeight="1">
-      <c r="I49" s="1"/>
+    <row r="36" spans="1:9" s="90" customFormat="1" ht="63.75">
+      <c r="A36" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" s="90" customFormat="1" ht="114.75">
+      <c r="A37" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" s="90" customFormat="1" ht="76.5">
+      <c r="A38" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="1:9" s="90" customFormat="1" ht="76.5">
+      <c r="A39" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" s="90" customFormat="1" ht="76.5">
+      <c r="A40" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" s="90" customFormat="1" ht="76.5">
+      <c r="A41" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9" s="90" customFormat="1" ht="63.75">
+      <c r="A42" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" s="90" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A43" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9" s="90" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A44" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" s="90" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A45" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9" s="90" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A46" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" s="90" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A47" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" s="90" customFormat="1" ht="84" customHeight="1">
+      <c r="A48" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="1:9" s="90" customFormat="1" ht="130.5" customHeight="1">
+      <c r="A49" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9" s="90" customFormat="1">
+      <c r="A50" s="33"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" s="90" customFormat="1">
+      <c r="A51" s="33"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="33"/>
+      <c r="G52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="33"/>
+      <c r="G53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="33"/>
+      <c r="G54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="33"/>
+      <c r="G55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="66.75" customHeight="1">
+      <c r="I63" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9112,7 +10802,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F50:F176 F1:F3 F7:F35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F59:F185 F1:F3 F7:F49">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9164,13 +10854,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -9182,13 +10872,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -9200,13 +10890,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -9225,10 +10915,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -9253,11 +10943,11 @@
         <f>COUNTIF(F$10:F$18,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="108">
         <f>COUNTA(A33:A1000)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -9456,7 +11146,7 @@
         <v>158</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -9507,16 +11197,16 @@
     </row>
     <row r="19" spans="1:9" s="90" customFormat="1" ht="84" customHeight="1">
       <c r="A19" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>190</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>193</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>166</v>
@@ -9528,16 +11218,16 @@
     </row>
     <row r="20" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A20" s="31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>166</v>
@@ -9549,16 +11239,16 @@
     </row>
     <row r="21" spans="1:9" s="90" customFormat="1" ht="38.25">
       <c r="A21" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>166</v>
@@ -9693,13 +11383,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -9711,13 +11401,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -9729,13 +11419,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -9754,10 +11444,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -9782,11 +11472,11 @@
         <f>COUNTIF(F$10:F$16,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="108">
         <f>COUNTA(A30:A997)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -9964,7 +11654,7 @@
         <v>163</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -9994,16 +11684,16 @@
     </row>
     <row r="17" spans="1:11" s="90" customFormat="1" ht="51" customHeight="1">
       <c r="A17" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>195</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>198</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>175</v>
@@ -10015,16 +11705,16 @@
     </row>
     <row r="18" spans="1:11" s="90" customFormat="1" ht="89.25">
       <c r="A18" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="34" t="s">
         <v>185</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>187</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>175</v>
@@ -10036,16 +11726,16 @@
     </row>
     <row r="19" spans="1:11" s="90" customFormat="1" ht="84" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>175</v>
@@ -10195,13 +11885,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -10213,13 +11903,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -10231,13 +11921,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -10256,10 +11946,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -10284,11 +11974,11 @@
         <f>COUNTIF(F$10:F$17,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="108">
         <f>COUNTA(A32:A999)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -10466,7 +12156,7 @@
         <v>154</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -10517,16 +12207,16 @@
     </row>
     <row r="18" spans="1:9" s="90" customFormat="1" ht="38.25">
       <c r="A18" s="31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>181</v>
-      </c>
       <c r="D18" s="34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>174</v>
@@ -10538,16 +12228,16 @@
     </row>
     <row r="19" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A19" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>174</v>
@@ -10558,16 +12248,16 @@
     </row>
     <row r="20" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A20" s="31" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>174</v>
@@ -10578,16 +12268,16 @@
     </row>
     <row r="21" spans="1:9" ht="38.25">
       <c r="A21" s="31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>174</v>
@@ -10599,16 +12289,16 @@
     </row>
     <row r="22" spans="1:9" ht="38.25">
       <c r="A22" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>210</v>
-      </c>
       <c r="C22" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>174</v>
@@ -10620,19 +12310,19 @@
     </row>
     <row r="23" spans="1:9" ht="25.5">
       <c r="A23" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="C23" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>214</v>
-      </c>
       <c r="E23" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -10641,16 +12331,16 @@
     </row>
     <row r="24" spans="1:9" ht="38.25">
       <c r="A24" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>212</v>
-      </c>
       <c r="C24" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E24" s="34" t="s">
         <v>174</v>
@@ -10724,7 +12414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -10738,7 +12428,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B3" sqref="B3:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/9th week/Binh/SE18_BlackBoxTestCase_PhoneManagement_v2.0.xlsx
+++ b/9th week/Binh/SE18_BlackBoxTestCase_PhoneManagement_v2.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8160" tabRatio="821" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10245" windowHeight="8160" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="427">
   <si>
     <t>Module Code</t>
   </si>
@@ -475,9 +475,6 @@
     <t>Display the Phone Management form</t>
   </si>
   <si>
-    <t>User click on the Export on the Phone managent screen, the Export screen will be opened</t>
-  </si>
-  <si>
     <t xml:space="preserve">Function: Phone Management_Export </t>
   </si>
   <si>
@@ -487,46 +484,25 @@
     <t>Test the Export button</t>
   </si>
   <si>
-    <t>User Click on the Export button</t>
-  </si>
-  <si>
     <t>Test the Phone Code droplist</t>
   </si>
   <si>
-    <t>User click on the Color droplist to choose the color</t>
-  </si>
-  <si>
     <t>Test the Seller drop list</t>
   </si>
   <si>
-    <t>User click on the Seller droplist to choose the staff who Exported this phone</t>
-  </si>
-  <si>
     <t>Test the Phone Name field</t>
   </si>
   <si>
-    <t>User click on the Phone Code droplist to choose the Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User click on the Phone Code droplist </t>
-  </si>
-  <si>
     <t>The Phone Name are showed in the Phone Name field when the Phone Code droplist are selected</t>
   </si>
   <si>
     <t>Test the Price field</t>
   </si>
   <si>
-    <t xml:space="preserve">User click on the Phone Code droplist, Color droplist </t>
-  </si>
-  <si>
     <t>The Price are showed in the Price field when the Phone Code droplist are selected</t>
   </si>
   <si>
     <t>All the field are setted to empty</t>
-  </si>
-  <si>
-    <t>Close the Import form</t>
   </si>
   <si>
     <t>Test the user interface of the Edit screen</t>
@@ -908,9 +884,6 @@
   </si>
   <si>
     <t>2.0</t>
-  </si>
-  <si>
-    <t>19/3/2015</t>
   </si>
   <si>
     <t>Display the Main Screen</t>
@@ -1506,6 +1479,300 @@
   </si>
   <si>
     <t>PMI40</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main Screen-&gt;Phone Management
+At Phone Management screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Action:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> click button Export
+the Export screen will be opened</t>
+    </r>
+  </si>
+  <si>
+    <t>PME13</t>
+  </si>
+  <si>
+    <t>PME14</t>
+  </si>
+  <si>
+    <t>PME15</t>
+  </si>
+  <si>
+    <t>PME16</t>
+  </si>
+  <si>
+    <t>PME17</t>
+  </si>
+  <si>
+    <t>PME18</t>
+  </si>
+  <si>
+    <t>PME19</t>
+  </si>
+  <si>
+    <t>PME20</t>
+  </si>
+  <si>
+    <t>PME21</t>
+  </si>
+  <si>
+    <t>PME22</t>
+  </si>
+  <si>
+    <t>PME23</t>
+  </si>
+  <si>
+    <t>PME24</t>
+  </si>
+  <si>
+    <t>PME25</t>
+  </si>
+  <si>
+    <t>PME26</t>
+  </si>
+  <si>
+    <t>PME27</t>
+  </si>
+  <si>
+    <t>PME28</t>
+  </si>
+  <si>
+    <t>PME29</t>
+  </si>
+  <si>
+    <t>PME30</t>
+  </si>
+  <si>
+    <t>PME31</t>
+  </si>
+  <si>
+    <t>PME32</t>
+  </si>
+  <si>
+    <t>PME33</t>
+  </si>
+  <si>
+    <t>PME34</t>
+  </si>
+  <si>
+    <t>PME35</t>
+  </si>
+  <si>
+    <t>Test case PM02, PME02,PME03,PME04,PME05,PME09,PME10,PME11, passed</t>
+  </si>
+  <si>
+    <t>Close the Export form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Color droplist
+Action: click on the Color droplist, choose a value
+</t>
+  </si>
+  <si>
+    <t>Test case PM02 passed(Display the Export form)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Operating System droplist
+Action: none
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Operating System droplist
+Action: click on the Operating System droplist
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Operating System droplist
+Action: click on the Operating System droplist, choose a value
+</t>
+  </si>
+  <si>
+    <t>Test the Exporter drop list when initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Exporter droplist
+Action: none
+</t>
+  </si>
+  <si>
+    <t>Test the Exporter drop list when click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Exporter droplist
+Action: click on the Exporter droplist
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exporter drop list display all Manufacture name from table STAFF.NAME in database </t>
+  </si>
+  <si>
+    <t>Test the Exporter drop list when click and choose a value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Exporter droplist
+Action: click on the Exporter droplist, choose a value
+</t>
+  </si>
+  <si>
+    <t>Choosen value: the value that you clicked on
+Exporter drop back o the state before clicking(DO NOT show the whole list)</t>
+  </si>
+  <si>
+    <t>Test the Exporter drop list when click but DO NOT choose a value</t>
+  </si>
+  <si>
+    <t>Choosen value: "Choose a staff"
+Exporter drop back o the state before clicking(DO NOT show the whole list)</t>
+  </si>
+  <si>
+    <t>Main Screen-&gt;Phone Management-&gt;Export
+At Phone Management_Export screen
+Component: Source textbox
+Action: none</t>
+  </si>
+  <si>
+    <t>Main Screen-&gt;Phone Management-&gt;Export
+At Phone Management_Export screen
+Component: Source textbox
+Action: on text change</t>
+  </si>
+  <si>
+    <t>Main Screen-&gt;Phone Management-&gt;Export
+At Phone Management_Export screen
+Component: Phone Name textbox
+Action: on text change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Action: none
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Action: on text change
+</t>
+  </si>
+  <si>
+    <t>Test Export Date on initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Date picker Export date 
+Action: none
+</t>
+  </si>
+  <si>
+    <t>Test Export Date on click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Date picker Export date 
+Action: on click
+</t>
+  </si>
+  <si>
+    <t>Test Export Date on  click and select date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Date picker Export date 
+Action: on selected date
+</t>
+  </si>
+  <si>
+    <t>Test Export Date on  click but DO NOT select date</t>
+  </si>
+  <si>
+    <t>Test the Export button when all the fileds are filled and validated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Screen-&gt;Phone Management-&gt;Export
+At: Phone Management_Export
+Component: Export button
+Action: click on the button Export
+</t>
+  </si>
+  <si>
+    <t>Add new record to the table Export in data base</t>
+  </si>
+  <si>
+    <t>At Phone Management_Export screen
+Action: User click on the Phone Code droplist to choose the Phone</t>
+  </si>
+  <si>
+    <t>At Phone Management_Export screen
+Action:User click on the Color droplist to choose the color</t>
+  </si>
+  <si>
+    <t>At Phone Management_Export screen
+Action:User click on the Seller droplist to choose the staff who Exported this phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Phone Management_Export screen
+Action:User click on the Phone Code droplist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Phone Management_Export screen
+Action:User click on the Phone Code droplist, Color droplist </t>
+  </si>
+  <si>
+    <t>At Phone Management_Export screen
+Action:User Click on the Export button</t>
+  </si>
+  <si>
+    <t>At Phone Management_Export screen
+Action:User Click on the Clear button to clear or fields</t>
+  </si>
+  <si>
+    <t>At Phone Management_Export screen
+Action:User Click on the Cancel button to cancel the current export action</t>
+  </si>
+  <si>
+    <t>At Phone Management_Export screen
+Action:User type a number</t>
+  </si>
+  <si>
+    <t>At Phone Management_Export screen
+Action:User choose from the day time picker</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1782,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1652,6 +1919,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1685,7 +1958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2042,6 +2315,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2049,7 +2337,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2292,9 +2580,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2351,6 +2636,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8702,8 +8998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8721,13 +9017,13 @@
     <row r="2" spans="1:7" s="38" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="40"/>
@@ -8738,59 +9034,59 @@
       <c r="B4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="C4" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="42" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="B5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="101" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="C5" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="103" t="str">
-        <f>C5&amp;"_"&amp;"BlackBoxTestcase"&amp;"_"&amp;"v2.0"</f>
-        <v>SE18_BlackBoxTestcase_v2.0</v>
-      </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="C6" s="102" t="str">
+        <f>C5&amp;"_"&amp;"BlackBoxTestcase"&amp;"_"&amp;"v3.0"</f>
+        <v>SE18_BlackBoxTestcase_v3.0</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="93" t="s">
-        <v>220</v>
+      <c r="G6" s="92">
+        <v>42008</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="42" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>219</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8834,37 +9130,43 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="58" customFormat="1">
-      <c r="B12" s="94">
+      <c r="B12" s="93">
         <v>42341</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="94" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E12" s="60"/>
       <c r="F12" s="61"/>
       <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:7" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B13" s="96" t="s">
-        <v>218</v>
+      <c r="B13" s="95" t="s">
+        <v>210</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="64"/>
     </row>
     <row r="14" spans="1:7" s="58" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B14" s="91"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="95">
+        <v>42008</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>209</v>
+      </c>
       <c r="E14" s="60"/>
       <c r="F14" s="60"/>
       <c r="G14" s="64"/>
@@ -8918,9 +9220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:P34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -8934,7 +9234,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8989,38 +9289,38 @@
       <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105" t="str">
+      <c r="C4" s="103"/>
+      <c r="D4" s="104" t="str">
         <f>D3</f>
         <v>MobilePhone Store Management</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
     </row>
     <row r="5" spans="2:6" s="2" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="75"/>
@@ -9268,13 +9568,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -9286,13 +9586,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -9304,13 +9604,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="110" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="109" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -9329,10 +9629,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="111"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -9357,11 +9657,11 @@
         <f>COUNTIF(F$10:F$17,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="107">
         <f>COUNTA(A10:A17)</f>
         <v>8</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -9422,19 +9722,19 @@
     </row>
     <row r="10" spans="1:10" s="90" customFormat="1" ht="86.25" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>117</v>
+        <v>224</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>109</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -9443,19 +9743,19 @@
     </row>
     <row r="11" spans="1:10" s="90" customFormat="1" ht="79.5" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>117</v>
+        <v>225</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>109</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -9464,19 +9764,19 @@
     </row>
     <row r="12" spans="1:10" s="90" customFormat="1" ht="75" customHeight="1">
       <c r="A12" s="31" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>117</v>
+        <v>226</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>109</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -9485,19 +9785,19 @@
     </row>
     <row r="13" spans="1:10" s="90" customFormat="1" ht="78.75" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>117</v>
+        <v>227</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>109</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -9506,19 +9806,19 @@
     </row>
     <row r="14" spans="1:10" s="90" customFormat="1" ht="76.5">
       <c r="A14" s="31" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -9527,19 +9827,19 @@
     </row>
     <row r="15" spans="1:10" s="90" customFormat="1" ht="87" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -9547,19 +9847,19 @@
     </row>
     <row r="16" spans="1:10" s="90" customFormat="1" ht="51">
       <c r="A16" s="31" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -9567,19 +9867,19 @@
     </row>
     <row r="17" spans="1:9" s="90" customFormat="1" ht="84" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
@@ -9689,8 +9989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9723,13 +10023,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -9741,13 +10041,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -9759,13 +10059,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -9784,10 +10084,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="111"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -9806,17 +10106,17 @@
       </c>
       <c r="C6" s="21">
         <f>E6-D6-B6-A6</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D6" s="22">
         <f>COUNTIF(F$10:F$49,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="108">
-        <f>COUNTA(A56:A1023)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="108"/>
+      <c r="E6" s="107">
+        <f>COUNTA(A10:A49)</f>
+        <v>40</v>
+      </c>
+      <c r="F6" s="107"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -9877,19 +10177,19 @@
     </row>
     <row r="10" spans="1:10" s="90" customFormat="1" ht="86.25" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>117</v>
+        <v>225</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>109</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -9898,19 +10198,19 @@
     </row>
     <row r="11" spans="1:10" s="90" customFormat="1" ht="86.25" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -9919,65 +10219,65 @@
     </row>
     <row r="12" spans="1:10" s="90" customFormat="1" ht="105.75" customHeight="1">
       <c r="A12" s="31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="32" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:10" s="90" customFormat="1" ht="98.25" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="32" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:10" s="90" customFormat="1" ht="86.25" customHeight="1">
       <c r="A14" s="31" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -9986,124 +10286,124 @@
     </row>
     <row r="15" spans="1:10" s="90" customFormat="1" ht="64.5" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:10" s="98" customFormat="1" ht="82.5" customHeight="1">
+    <row r="16" spans="1:10" s="97" customFormat="1" ht="82.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="D16" s="99" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>165</v>
+        <v>323</v>
+      </c>
+      <c r="D16" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>157</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
-      <c r="I16" s="97"/>
-    </row>
-    <row r="17" spans="1:9" s="98" customFormat="1" ht="82.5" customHeight="1">
+      <c r="I16" s="96"/>
+    </row>
+    <row r="17" spans="1:9" s="97" customFormat="1" ht="82.5" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>165</v>
+        <v>324</v>
+      </c>
+      <c r="D17" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="98" t="s">
+        <v>157</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="97"/>
-    </row>
-    <row r="18" spans="1:9" s="98" customFormat="1" ht="82.5" customHeight="1">
+      <c r="I17" s="96"/>
+    </row>
+    <row r="18" spans="1:9" s="97" customFormat="1" ht="82.5" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="99" t="s">
-        <v>359</v>
-      </c>
-      <c r="E18" s="99" t="s">
-        <v>165</v>
+        <v>324</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>157</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="97"/>
-    </row>
-    <row r="19" spans="1:9" s="98" customFormat="1" ht="82.5" customHeight="1">
+      <c r="I18" s="96"/>
+    </row>
+    <row r="19" spans="1:9" s="97" customFormat="1" ht="82.5" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="32"/>
-      <c r="I19" s="97"/>
+      <c r="I19" s="96"/>
     </row>
     <row r="20" spans="1:9" s="90" customFormat="1" ht="76.5">
       <c r="A20" s="31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -10112,19 +10412,19 @@
     </row>
     <row r="21" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A21" s="31" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
@@ -10133,19 +10433,19 @@
     </row>
     <row r="22" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A22" s="31" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
@@ -10154,19 +10454,19 @@
     </row>
     <row r="23" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A23" s="31" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -10175,19 +10475,19 @@
     </row>
     <row r="24" spans="1:9" s="90" customFormat="1" ht="102">
       <c r="A24" s="31" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
@@ -10196,19 +10496,19 @@
     </row>
     <row r="25" spans="1:9" s="90" customFormat="1" ht="102">
       <c r="A25" s="31" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
@@ -10217,19 +10517,19 @@
     </row>
     <row r="26" spans="1:9" s="90" customFormat="1" ht="102">
       <c r="A26" s="31" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
@@ -10238,19 +10538,19 @@
     </row>
     <row r="27" spans="1:9" s="90" customFormat="1" ht="76.5">
       <c r="A27" s="31" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -10259,19 +10559,19 @@
     </row>
     <row r="28" spans="1:9" s="90" customFormat="1" ht="76.5">
       <c r="A28" s="31" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -10280,19 +10580,19 @@
     </row>
     <row r="29" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A29" s="31" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -10301,19 +10601,19 @@
     </row>
     <row r="30" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A30" s="31" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
@@ -10322,19 +10622,19 @@
     </row>
     <row r="31" spans="1:9" s="90" customFormat="1" ht="63.75">
       <c r="A31" s="31" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
@@ -10343,65 +10643,65 @@
     </row>
     <row r="32" spans="1:9" s="90" customFormat="1" ht="102">
       <c r="A32" s="31" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
       <c r="H32" s="32" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" s="90" customFormat="1" ht="129.75" customHeight="1">
       <c r="A33" s="31" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="32" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" s="90" customFormat="1" ht="129.75" customHeight="1">
       <c r="A34" s="31" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
@@ -10410,19 +10710,19 @@
     </row>
     <row r="35" spans="1:9" s="90" customFormat="1" ht="129.75" customHeight="1">
       <c r="A35" s="31" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
@@ -10431,42 +10731,42 @@
     </row>
     <row r="36" spans="1:9" s="90" customFormat="1" ht="63.75">
       <c r="A36" s="31" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
       <c r="H36" s="32" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" s="90" customFormat="1" ht="114.75">
       <c r="A37" s="31" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
@@ -10475,42 +10775,42 @@
     </row>
     <row r="38" spans="1:9" s="90" customFormat="1" ht="76.5">
       <c r="A38" s="31" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
       <c r="H38" s="34" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" s="90" customFormat="1" ht="76.5">
       <c r="A39" s="31" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
@@ -10519,19 +10819,19 @@
     </row>
     <row r="40" spans="1:9" s="90" customFormat="1" ht="76.5">
       <c r="A40" s="31" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
@@ -10540,19 +10840,19 @@
     </row>
     <row r="41" spans="1:9" s="90" customFormat="1" ht="76.5">
       <c r="A41" s="31" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
@@ -10561,42 +10861,42 @@
     </row>
     <row r="42" spans="1:9" s="90" customFormat="1" ht="63.75">
       <c r="A42" s="31" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="32" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" s="90" customFormat="1" ht="119.25" customHeight="1">
       <c r="A43" s="31" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
@@ -10605,19 +10905,19 @@
     </row>
     <row r="44" spans="1:9" s="90" customFormat="1" ht="119.25" customHeight="1">
       <c r="A44" s="31" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
@@ -10626,19 +10926,19 @@
     </row>
     <row r="45" spans="1:9" s="90" customFormat="1" ht="119.25" customHeight="1">
       <c r="A45" s="31" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
@@ -10647,19 +10947,19 @@
     </row>
     <row r="46" spans="1:9" s="90" customFormat="1" ht="119.25" customHeight="1">
       <c r="A46" s="31" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
@@ -10668,19 +10968,19 @@
     </row>
     <row r="47" spans="1:9" s="90" customFormat="1" ht="119.25" customHeight="1">
       <c r="A47" s="31" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D47" s="34" t="s">
         <v>70</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
@@ -10689,19 +10989,19 @@
     </row>
     <row r="48" spans="1:9" s="90" customFormat="1" ht="84" customHeight="1">
       <c r="A48" s="31" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
@@ -10710,19 +11010,19 @@
     </row>
     <row r="49" spans="1:9" s="90" customFormat="1" ht="130.5" customHeight="1">
       <c r="A49" s="31" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>73</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
@@ -10818,10 +11118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10854,13 +11154,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -10872,13 +11172,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -10890,13 +11190,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -10915,10 +11215,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="111"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -10937,17 +11237,17 @@
       </c>
       <c r="C6" s="21">
         <f>E6-D6-B6-A6</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D6" s="22">
         <f>COUNTIF(F$10:F$18,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="108">
-        <f>COUNTA(A33:A1000)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="108"/>
+      <c r="E6" s="107">
+        <f>COUNTA(A10:A1000)</f>
+        <v>35</v>
+      </c>
+      <c r="F6" s="107"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -10996,7 +11296,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -11008,16 +11308,16 @@
     </row>
     <row r="10" spans="1:10" s="90" customFormat="1" ht="86.25" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>117</v>
+        <v>361</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>109</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>75</v>
@@ -11029,61 +11329,61 @@
     </row>
     <row r="11" spans="1:10" s="90" customFormat="1" ht="45.75" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>86</v>
+        <v>417</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:10" s="90" customFormat="1" ht="25.5">
+    <row r="12" spans="1:10" s="90" customFormat="1" ht="38.25">
       <c r="A12" s="31" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:10" s="90" customFormat="1" ht="38.25">
+    <row r="13" spans="1:10" s="90" customFormat="1" ht="51">
       <c r="A13" s="31" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>84</v>
+        <v>419</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -11092,19 +11392,19 @@
     </row>
     <row r="14" spans="1:10" s="90" customFormat="1" ht="38.25">
       <c r="A14" s="31" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>87</v>
+        <v>420</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -11113,19 +11413,19 @@
     </row>
     <row r="15" spans="1:10" s="90" customFormat="1" ht="38.25">
       <c r="A15" s="31" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>90</v>
+        <v>421</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -11134,61 +11434,61 @@
     </row>
     <row r="16" spans="1:10" s="90" customFormat="1" ht="51">
       <c r="A16" s="31" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
       <c r="I16" s="30"/>
     </row>
-    <row r="17" spans="1:9" s="90" customFormat="1" ht="25.5">
+    <row r="17" spans="1:9" s="90" customFormat="1" ht="38.25">
       <c r="A17" s="31" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>69</v>
+        <v>423</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="32"/>
       <c r="I17" s="30"/>
     </row>
-    <row r="18" spans="1:9" s="90" customFormat="1" ht="25.5">
+    <row r="18" spans="1:9" s="90" customFormat="1" ht="38.25">
       <c r="A18" s="31" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>72</v>
+        <v>424</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>93</v>
+        <v>386</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
@@ -11197,19 +11497,19 @@
     </row>
     <row r="19" spans="1:9" s="90" customFormat="1" ht="84" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>180</v>
+        <v>425</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -11218,19 +11518,19 @@
     </row>
     <row r="20" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A20" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>184</v>
+        <v>426</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -11239,89 +11539,495 @@
     </row>
     <row r="21" spans="1:9" s="90" customFormat="1" ht="38.25">
       <c r="A21" s="31" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>180</v>
+        <v>425</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="1:9" s="90" customFormat="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="33"/>
-      <c r="G23" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="113"/>
+    </row>
+    <row r="22" spans="1:9" s="90" customFormat="1" ht="89.25">
+      <c r="A22" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+    </row>
+    <row r="23" spans="1:9" ht="89.25">
+      <c r="A23" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="33"/>
-      <c r="G24" s="1"/>
+    <row r="24" spans="1:9" ht="102">
+      <c r="A24" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="33"/>
-      <c r="G25" s="1"/>
+    <row r="25" spans="1:9" ht="102">
+      <c r="A25" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="33"/>
-      <c r="G26" s="1"/>
+    <row r="26" spans="1:9" ht="102">
+      <c r="A26" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="E26" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="33"/>
-      <c r="G27" s="1"/>
+    <row r="27" spans="1:9" ht="76.5">
+      <c r="A27" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="33"/>
-      <c r="G28" s="1"/>
+    <row r="28" spans="1:9" ht="76.5">
+      <c r="A28" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="E28" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="33"/>
-      <c r="G29" s="1"/>
+    <row r="29" spans="1:9" ht="89.25">
+      <c r="A29" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="E29" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="33"/>
-      <c r="G30" s="1"/>
+    <row r="30" spans="1:9" ht="89.25">
+      <c r="A30" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E30" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="33"/>
-      <c r="G31" s="1"/>
+    <row r="31" spans="1:9" ht="63.75">
+      <c r="A31" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="33"/>
-      <c r="G32" s="1"/>
+    <row r="32" spans="1:9" ht="63.75">
+      <c r="A32" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="1:9" ht="102">
+      <c r="A33" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F33" s="114"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="114"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="9:9" ht="66.75" customHeight="1">
+    <row r="34" spans="1:9" ht="66.75" customHeight="1">
+      <c r="A34" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F34" s="114"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="114"/>
       <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="63.75">
+      <c r="A35" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F35" s="114"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="114"/>
+    </row>
+    <row r="36" spans="1:9" ht="63.75">
+      <c r="A36" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F36" s="114"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="114"/>
+    </row>
+    <row r="37" spans="1:9" ht="114.75">
+      <c r="A37" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F37" s="114"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="114"/>
+    </row>
+    <row r="38" spans="1:9" ht="76.5">
+      <c r="A38" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="E38" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F38" s="114"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="114"/>
+    </row>
+    <row r="39" spans="1:9" ht="76.5">
+      <c r="A39" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="E39" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F39" s="114"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="114"/>
+    </row>
+    <row r="40" spans="1:9" ht="76.5">
+      <c r="A40" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F40" s="114"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="114"/>
+    </row>
+    <row r="41" spans="1:9" ht="76.5">
+      <c r="A41" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="E41" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F41" s="114"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="114"/>
+    </row>
+    <row r="42" spans="1:9" ht="63.75">
+      <c r="A42" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F42" s="114"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="114"/>
+    </row>
+    <row r="43" spans="1:9" ht="114.75">
+      <c r="A43" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="F43" s="114"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="114"/>
+    </row>
+    <row r="44" spans="1:9" ht="76.5">
+      <c r="A44" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>385</v>
+      </c>
+      <c r="F44" s="114"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11341,7 +12047,8 @@
     <hyperlink ref="D10" location="'PhoneManagement_Export form'!A1" display="The screen will look like this"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11349,8 +12056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11383,13 +12090,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -11401,13 +12108,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -11419,13 +12126,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -11444,10 +12151,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="111"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -11472,11 +12179,11 @@
         <f>COUNTIF(F$10:F$16,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="107">
         <f>COUNTA(A30:A997)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -11525,7 +12232,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -11537,19 +12244,19 @@
     </row>
     <row r="10" spans="1:10" s="90" customFormat="1" ht="86.25" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>117</v>
+        <v>88</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>109</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -11558,7 +12265,7 @@
     </row>
     <row r="11" spans="1:10" s="90" customFormat="1" ht="45.75" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>62</v>
@@ -11567,10 +12274,10 @@
         <v>63</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -11579,7 +12286,7 @@
     </row>
     <row r="12" spans="1:10" s="90" customFormat="1" ht="76.5" customHeight="1">
       <c r="A12" s="31" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>65</v>
@@ -11588,10 +12295,10 @@
         <v>67</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -11600,7 +12307,7 @@
     </row>
     <row r="13" spans="1:10" s="90" customFormat="1" ht="102" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>64</v>
@@ -11609,10 +12316,10 @@
         <v>66</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -11621,19 +12328,19 @@
     </row>
     <row r="14" spans="1:10" s="90" customFormat="1" ht="127.5" customHeight="1">
       <c r="A14" s="31" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -11642,19 +12349,19 @@
     </row>
     <row r="15" spans="1:10" s="90" customFormat="1" ht="114.75" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -11663,7 +12370,7 @@
     </row>
     <row r="16" spans="1:10" s="90" customFormat="1" ht="51" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>71</v>
@@ -11675,7 +12382,7 @@
         <v>73</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -11684,19 +12391,19 @@
     </row>
     <row r="17" spans="1:11" s="90" customFormat="1" ht="51" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
@@ -11705,19 +12412,19 @@
     </row>
     <row r="18" spans="1:11" s="90" customFormat="1" ht="89.25">
       <c r="A18" s="31" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
@@ -11726,19 +12433,19 @@
     </row>
     <row r="19" spans="1:11" s="90" customFormat="1" ht="84" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -11851,8 +12558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11885,13 +12592,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -11903,13 +12610,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -11921,13 +12628,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="110" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -11946,10 +12653,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="111"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -11974,11 +12681,11 @@
         <f>COUNTIF(F$10:F$17,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="107">
         <f>COUNTA(A32:A999)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="108"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -12027,7 +12734,7 @@
     <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -12039,19 +12746,19 @@
     </row>
     <row r="10" spans="1:10" s="90" customFormat="1" ht="86.25" customHeight="1">
       <c r="A10" s="31" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>109</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -12060,7 +12767,7 @@
     </row>
     <row r="11" spans="1:10" s="90" customFormat="1" ht="45.75" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>62</v>
@@ -12069,10 +12776,10 @@
         <v>63</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -12081,7 +12788,7 @@
     </row>
     <row r="12" spans="1:10" s="90" customFormat="1" ht="38.25">
       <c r="A12" s="31" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>65</v>
@@ -12090,10 +12797,10 @@
         <v>67</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
@@ -12102,7 +12809,7 @@
     </row>
     <row r="13" spans="1:10" s="90" customFormat="1" ht="25.5">
       <c r="A13" s="31" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>64</v>
@@ -12114,7 +12821,7 @@
         <v>74</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -12123,19 +12830,19 @@
     </row>
     <row r="14" spans="1:10" s="90" customFormat="1" ht="38.25">
       <c r="A14" s="31" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -12144,19 +12851,19 @@
     </row>
     <row r="15" spans="1:10" s="90" customFormat="1" ht="114.75">
       <c r="A15" s="31" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
@@ -12165,7 +12872,7 @@
     </row>
     <row r="16" spans="1:10" s="90" customFormat="1" ht="38.25">
       <c r="A16" s="31" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>68</v>
@@ -12177,7 +12884,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -12186,7 +12893,7 @@
     </row>
     <row r="17" spans="1:9" s="90" customFormat="1" ht="84" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>71</v>
@@ -12198,7 +12905,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
@@ -12207,19 +12914,19 @@
     </row>
     <row r="18" spans="1:9" s="90" customFormat="1" ht="38.25">
       <c r="A18" s="31" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
@@ -12228,19 +12935,19 @@
     </row>
     <row r="19" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A19" s="31" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -12248,19 +12955,19 @@
     </row>
     <row r="20" spans="1:9" s="90" customFormat="1" ht="89.25">
       <c r="A20" s="31" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -12268,19 +12975,19 @@
     </row>
     <row r="21" spans="1:9" ht="38.25">
       <c r="A21" s="31" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
@@ -12289,19 +12996,19 @@
     </row>
     <row r="22" spans="1:9" ht="38.25">
       <c r="A22" s="31" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
@@ -12310,19 +13017,19 @@
     </row>
     <row r="23" spans="1:9" ht="25.5">
       <c r="A23" s="31" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -12331,19 +13038,19 @@
     </row>
     <row r="24" spans="1:9" ht="38.25">
       <c r="A24" s="31" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
@@ -12414,7 +13121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -12427,8 +13134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:P32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
